--- a/server/test/utils/Book1.xlsx
+++ b/server/test/utils/Book1.xlsx
@@ -355,9 +355,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <pane state="frozen" topLeftCell="A2" ySplit="1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="true" max="1" min="1" width="10"/>
+    <col customWidth="true" max="2" min="2" width="20"/>
+    <col customWidth="true" max="3" min="3" width="10"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
